--- a/public/files/template return.xlsx
+++ b/public/files/template return.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahya\Documents\Kerjaan\popeye-cell\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66BF1CF-D319-4398-8430-E3A12A39C836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25422017-7201-4074-A58B-AB49DBC674E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E6CD529-A8AC-4D3E-B623-BB82EB300663}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>lok_spk</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>alasan_return</t>
+  </si>
+  <si>
+    <t>pedagang</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +257,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5965134-2A24-46B2-8E55-4C60037C3826}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +608,7 @@
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -624,8 +630,11 @@
       <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="H1" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
